--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-task-action.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:03:55+00:00</t>
+    <t>2025-12-18T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-task-action.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-task-action.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:46+00:00</t>
+    <t>2025-12-18T16:17:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Task</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Task|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -860,7 +860,7 @@
     <t>Task.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -973,7 +973,7 @@
     <t>auteurStatut</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-status-author|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1397,7 +1397,7 @@
 Executer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-practitioner-role|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1788,7 +1788,7 @@
     <t>Task.input:evaluation.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-questionnaire-response|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1897,7 +1897,7 @@
     <t>Task.input:pieceJointe.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-document-reference|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1933,7 +1933,7 @@
     <t>Task.input:objectif.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-objectif)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-goal-objectif|2.2.0-ballot)
 </t>
   </si>
   <si>
